--- a/server-social/v0.1/mysql/schema.xlsx
+++ b/server-social/v0.1/mysql/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\social-network\server-social\v0.1\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106F219F-6A2F-4FBC-9EB7-6D84AEFB6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052AB9F4-AAF2-4911-AD31-B706BC65D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>historymomo</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>upbalance</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,118 +414,162 @@
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>14</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
